--- a/FsReveal/slides/order.xlsx
+++ b/FsReveal/slides/order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Dropbox\Projects\FsDither\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Dropbox\Projects\dotnetcambridge-dither\FsReveal\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="21">
   <si>
     <t>c</t>
   </si>
@@ -301,7 +301,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +749,57 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AU33"/>
+  <dimension ref="B2:AU54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3871,439 @@
       <c r="AA32" s="29"/>
       <c r="AR32" s="26"/>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="10:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="35">
+        <v>0</v>
+      </c>
+      <c r="L36" s="35">
+        <v>1</v>
+      </c>
+      <c r="M36" s="35">
+        <v>2</v>
+      </c>
+      <c r="N36" s="35">
+        <v>3</v>
+      </c>
+      <c r="O36" s="35">
+        <v>4</v>
+      </c>
+      <c r="P36" s="35">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>6</v>
+      </c>
+      <c r="R36" s="35">
+        <v>7</v>
+      </c>
+      <c r="S36" s="35">
+        <v>8</v>
+      </c>
+      <c r="T36" s="35">
+        <v>9</v>
+      </c>
+      <c r="U36" s="35">
+        <v>10</v>
+      </c>
+      <c r="V36" s="35">
+        <v>11</v>
+      </c>
+      <c r="W36" s="35">
+        <v>12</v>
+      </c>
+      <c r="X36" s="35">
+        <v>13</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="35">
+        <v>15</v>
+      </c>
+      <c r="AA36" s="35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="10:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="35">
+        <v>0</v>
+      </c>
+      <c r="K37" s="73"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="75"/>
+    </row>
+    <row r="38" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J38" s="35">
+        <v>1</v>
+      </c>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="77"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="78"/>
+    </row>
+    <row r="39" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J39" s="35">
+        <v>2</v>
+      </c>
+      <c r="K39" s="76"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="77"/>
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="78"/>
+    </row>
+    <row r="40" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J40" s="35">
+        <v>3</v>
+      </c>
+      <c r="K40" s="76"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="78"/>
+    </row>
+    <row r="41" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J41" s="35">
+        <v>4</v>
+      </c>
+      <c r="K41" s="76"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="78"/>
+    </row>
+    <row r="42" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J42" s="35">
+        <v>5</v>
+      </c>
+      <c r="K42" s="76"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+      <c r="Y42" s="77"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="78"/>
+    </row>
+    <row r="43" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J43" s="35">
+        <v>6</v>
+      </c>
+      <c r="K43" s="76"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="78"/>
+    </row>
+    <row r="44" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J44" s="35">
+        <v>7</v>
+      </c>
+      <c r="K44" s="76"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="71"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="72"/>
+    </row>
+    <row r="45" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J45" s="35">
+        <v>8</v>
+      </c>
+      <c r="K45" s="76"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="72"/>
+    </row>
+    <row r="46" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J46" s="35">
+        <v>9</v>
+      </c>
+      <c r="K46" s="76"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="72"/>
+    </row>
+    <row r="47" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J47" s="35">
+        <v>10</v>
+      </c>
+      <c r="K47" s="76"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="83"/>
+    </row>
+    <row r="48" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J48" s="35">
+        <v>11</v>
+      </c>
+      <c r="K48" s="76"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="83"/>
+    </row>
+    <row r="49" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J49" s="35">
+        <v>12</v>
+      </c>
+      <c r="K49" s="80"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="83"/>
+    </row>
+    <row r="50" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J50" s="35">
+        <v>13</v>
+      </c>
+      <c r="K50" s="80"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="83"/>
+    </row>
+    <row r="51" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J51" s="35">
+        <v>14</v>
+      </c>
+      <c r="K51" s="80"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="83"/>
+    </row>
+    <row r="52" spans="10:27" x14ac:dyDescent="0.25">
+      <c r="J52" s="35">
+        <v>15</v>
+      </c>
+      <c r="K52" s="80"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="83"/>
+    </row>
+    <row r="53" spans="10:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="35">
+        <v>16</v>
+      </c>
+      <c r="K53" s="86"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="84"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="85"/>
+    </row>
+    <row r="54" spans="10:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
